--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4659689164723</v>
+        <v>6.153886666666666</v>
       </c>
       <c r="N2">
-        <v>48.4659689164723</v>
+        <v>18.46166</v>
       </c>
       <c r="O2">
-        <v>0.7115449449447045</v>
+        <v>0.08077417226496708</v>
       </c>
       <c r="P2">
-        <v>0.7115449449447045</v>
+        <v>0.0807741722649671</v>
       </c>
       <c r="Q2">
-        <v>7044.182822728602</v>
+        <v>999.3868684843399</v>
       </c>
       <c r="R2">
-        <v>7044.182822728602</v>
+        <v>8994.481816359059</v>
       </c>
       <c r="S2">
-        <v>0.2683034523387798</v>
+        <v>0.03158570359128056</v>
       </c>
       <c r="T2">
-        <v>0.2683034523387798</v>
+        <v>0.03158570359128056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.6477451374427</v>
+        <v>48.59929933333333</v>
       </c>
       <c r="N3">
-        <v>19.6477451374427</v>
+        <v>145.797898</v>
       </c>
       <c r="O3">
-        <v>0.2884550550552954</v>
+        <v>0.6379006291374719</v>
       </c>
       <c r="P3">
-        <v>0.2884550550552954</v>
+        <v>0.637900629137472</v>
       </c>
       <c r="Q3">
-        <v>2855.659587473635</v>
+        <v>7892.492046425902</v>
       </c>
       <c r="R3">
-        <v>2855.659587473635</v>
+        <v>71032.42841783311</v>
       </c>
       <c r="S3">
-        <v>0.1087682340599341</v>
+        <v>0.2494428556511038</v>
       </c>
       <c r="T3">
-        <v>0.1087682340599341</v>
+        <v>0.2494428556511038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.4659689164723</v>
+        <v>21.43313066666667</v>
       </c>
       <c r="N4">
-        <v>48.4659689164723</v>
+        <v>64.299392</v>
       </c>
       <c r="O4">
-        <v>0.7115449449447045</v>
+        <v>0.2813251985975609</v>
       </c>
       <c r="P4">
-        <v>0.7115449449447045</v>
+        <v>0.2813251985975609</v>
       </c>
       <c r="Q4">
-        <v>3168.956198636142</v>
+        <v>3480.725352775808</v>
       </c>
       <c r="R4">
-        <v>3168.956198636142</v>
+        <v>31326.52817498227</v>
       </c>
       <c r="S4">
-        <v>0.1207012807306877</v>
+        <v>0.1100086090206166</v>
       </c>
       <c r="T4">
-        <v>0.1207012807306877</v>
+        <v>0.1100086090206166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H5">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J5">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>19.6477451374427</v>
+        <v>6.153886666666666</v>
       </c>
       <c r="N5">
-        <v>19.6477451374427</v>
+        <v>18.46166</v>
       </c>
       <c r="O5">
-        <v>0.2884550550552954</v>
+        <v>0.08077417226496708</v>
       </c>
       <c r="P5">
-        <v>0.2884550550552954</v>
+        <v>0.0807741722649671</v>
       </c>
       <c r="Q5">
-        <v>1284.671391793029</v>
+        <v>402.5710481906711</v>
       </c>
       <c r="R5">
-        <v>1284.671391793029</v>
+        <v>3623.13943371604</v>
       </c>
       <c r="S5">
-        <v>0.04893140598605597</v>
+        <v>0.01272329085318666</v>
       </c>
       <c r="T5">
-        <v>0.04893140598605597</v>
+        <v>0.01272329085318666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.4659689164723</v>
+        <v>48.59929933333333</v>
       </c>
       <c r="N6">
-        <v>48.4659689164723</v>
+        <v>145.797898</v>
       </c>
       <c r="O6">
-        <v>0.7115449449447045</v>
+        <v>0.6379006291374719</v>
       </c>
       <c r="P6">
-        <v>0.7115449449447045</v>
+        <v>0.637900629137472</v>
       </c>
       <c r="Q6">
-        <v>5503.658797362816</v>
+        <v>3179.238087033157</v>
       </c>
       <c r="R6">
-        <v>5503.658797362816</v>
+        <v>28613.14278329841</v>
       </c>
       <c r="S6">
-        <v>0.2096269635510612</v>
+        <v>0.1004800793664948</v>
       </c>
       <c r="T6">
-        <v>0.2096269635510612</v>
+        <v>0.1004800793664948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6477451374427</v>
+        <v>21.43313066666667</v>
       </c>
       <c r="N7">
-        <v>19.6477451374427</v>
+        <v>64.299392</v>
       </c>
       <c r="O7">
-        <v>0.2884550550552954</v>
+        <v>0.2813251985975609</v>
       </c>
       <c r="P7">
-        <v>0.2884550550552954</v>
+        <v>0.2813251985975609</v>
       </c>
       <c r="Q7">
-        <v>2231.142547885326</v>
+        <v>1402.09892476965</v>
       </c>
       <c r="R7">
-        <v>2231.142547885326</v>
+        <v>12618.89032292685</v>
       </c>
       <c r="S7">
-        <v>0.08498121972730034</v>
+        <v>0.04431345101681341</v>
       </c>
       <c r="T7">
-        <v>0.08498121972730034</v>
+        <v>0.04431345101681341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.1663210839279</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H8">
-        <v>61.1663210839279</v>
+        <v>378.92083</v>
       </c>
       <c r="I8">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J8">
-        <v>0.158687443606181</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>48.4659689164723</v>
+        <v>6.153886666666666</v>
       </c>
       <c r="N8">
-        <v>48.4659689164723</v>
+        <v>18.46166</v>
       </c>
       <c r="O8">
-        <v>0.7115449449447045</v>
+        <v>0.08077417226496708</v>
       </c>
       <c r="P8">
-        <v>0.7115449449447045</v>
+        <v>0.0807741722649671</v>
       </c>
       <c r="Q8">
-        <v>2964.485016388614</v>
+        <v>777.2786144864222</v>
       </c>
       <c r="R8">
-        <v>2964.485016388614</v>
+        <v>6995.507530377799</v>
       </c>
       <c r="S8">
-        <v>0.1129132483241759</v>
+        <v>0.02456595408567154</v>
       </c>
       <c r="T8">
-        <v>0.1129132483241759</v>
+        <v>0.02456595408567155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H9">
+        <v>378.92083</v>
+      </c>
+      <c r="I9">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J9">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.59929933333333</v>
+      </c>
+      <c r="N9">
+        <v>145.797898</v>
+      </c>
+      <c r="O9">
+        <v>0.6379006291374719</v>
+      </c>
+      <c r="P9">
+        <v>0.637900629137472</v>
+      </c>
+      <c r="Q9">
+        <v>6138.428946935038</v>
+      </c>
+      <c r="R9">
+        <v>55245.86052241534</v>
+      </c>
+      <c r="S9">
+        <v>0.1940055481498101</v>
+      </c>
+      <c r="T9">
+        <v>0.1940055481498102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>61.1663210839279</v>
-      </c>
-      <c r="H9">
-        <v>61.1663210839279</v>
-      </c>
-      <c r="I9">
-        <v>0.158687443606181</v>
-      </c>
-      <c r="J9">
-        <v>0.158687443606181</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>19.6477451374427</v>
-      </c>
-      <c r="N9">
-        <v>19.6477451374427</v>
-      </c>
-      <c r="O9">
-        <v>0.2884550550552954</v>
-      </c>
-      <c r="P9">
-        <v>0.2884550550552954</v>
-      </c>
-      <c r="Q9">
-        <v>1201.780287652003</v>
-      </c>
-      <c r="R9">
-        <v>1201.780287652003</v>
-      </c>
-      <c r="S9">
-        <v>0.04577419528200501</v>
-      </c>
-      <c r="T9">
-        <v>0.04577419528200501</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H10">
+        <v>378.92083</v>
+      </c>
+      <c r="I10">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J10">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.43313066666667</v>
+      </c>
+      <c r="N10">
+        <v>64.299392</v>
+      </c>
+      <c r="O10">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="P10">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="Q10">
+        <v>2707.153220570596</v>
+      </c>
+      <c r="R10">
+        <v>24364.37898513536</v>
+      </c>
+      <c r="S10">
+        <v>0.08555979861012479</v>
+      </c>
+      <c r="T10">
+        <v>0.0855597986101248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>61.180387</v>
+      </c>
+      <c r="H11">
+        <v>183.541161</v>
+      </c>
+      <c r="I11">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J11">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>6.153886666666666</v>
+      </c>
+      <c r="N11">
+        <v>18.46166</v>
+      </c>
+      <c r="O11">
+        <v>0.08077417226496708</v>
+      </c>
+      <c r="P11">
+        <v>0.0807741722649671</v>
+      </c>
+      <c r="Q11">
+        <v>376.4971678208066</v>
+      </c>
+      <c r="R11">
+        <v>3388.47451038726</v>
+      </c>
+      <c r="S11">
+        <v>0.01189922373482832</v>
+      </c>
+      <c r="T11">
+        <v>0.01189922373482833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>61.180387</v>
+      </c>
+      <c r="H12">
+        <v>183.541161</v>
+      </c>
+      <c r="I12">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J12">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>48.59929933333333</v>
+      </c>
+      <c r="N12">
+        <v>145.797898</v>
+      </c>
+      <c r="O12">
+        <v>0.6379006291374719</v>
+      </c>
+      <c r="P12">
+        <v>0.637900629137472</v>
+      </c>
+      <c r="Q12">
+        <v>2973.323941142175</v>
+      </c>
+      <c r="R12">
+        <v>26759.91547027958</v>
+      </c>
+      <c r="S12">
+        <v>0.09397214597006331</v>
+      </c>
+      <c r="T12">
+        <v>0.09397214597006334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>61.180387</v>
+      </c>
+      <c r="H13">
+        <v>183.541161</v>
+      </c>
+      <c r="I13">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J13">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.43313066666667</v>
+      </c>
+      <c r="N13">
+        <v>64.299392</v>
+      </c>
+      <c r="O13">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="P13">
+        <v>0.2813251985975609</v>
+      </c>
+      <c r="Q13">
+        <v>1311.287228808235</v>
+      </c>
+      <c r="R13">
+        <v>11801.58505927411</v>
+      </c>
+      <c r="S13">
+        <v>0.04144333995000615</v>
+      </c>
+      <c r="T13">
+        <v>0.04144333995000616</v>
       </c>
     </row>
   </sheetData>
